--- a/tests/unit_tests/results/test_eb.xlsx
+++ b/tests/unit_tests/results/test_eb.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -17033,7 +17033,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -17534,7 +17534,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -23045,7 +23045,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -23546,7 +23546,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2020-09-02 23:04:50</t>
+          <t>2020-09-02 23:15:58</t>
         </is>
       </c>
     </row>

--- a/tests/unit_tests/results/test_eb.xlsx
+++ b/tests/unit_tests/results/test_eb.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="EGGS_PER_YEAR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BAGGS_PER_YEAR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ES_OVER_YEARS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EGGS_PER_YEAR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BAGGS_PER_YEAR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ES_OVER_YEARS" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -423,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -441,11 +442,1786 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:L64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_Elektrische_Energie_2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-09-04 00:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BAGGS_ELE_00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4308.01</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14342.79</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32475.21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40136.91</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11445.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30305.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17112.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6984.12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25837.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>182947.94</v>
+      </c>
+      <c r="L9" t="n">
+        <v>182947.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Öffentliche und Private Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1266.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2520.17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6426.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5110.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3283.81</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5457.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4444.65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1610.85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11316.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>41436.24</v>
+      </c>
+      <c r="L10" t="n">
+        <v>41436.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Private Haushalte</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1914.44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4114.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10138.13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8086.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3747.76</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7824.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4627.75</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2431.41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8760.129999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>51645.46</v>
+      </c>
+      <c r="L11" t="n">
+        <v>51645.45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>139.12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240.11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>838.5599999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>678.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>187.82</v>
+      </c>
+      <c r="G12" t="n">
+        <v>593.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>190.29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>97</v>
+      </c>
+      <c r="J12" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3052.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3052.49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Produzierender Bereich</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>921.99</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5835.52</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13249.46</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24272.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3167.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14982.81</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6140.97</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2281.91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3495.51</v>
+      </c>
+      <c r="K13" t="n">
+        <v>74348.03</v>
+      </c>
+      <c r="L13" t="n">
+        <v>74348.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Verkehr</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1632.69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1823</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1989.27</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1059.09</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1447.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1708.94</v>
+      </c>
+      <c r="I14" t="n">
+        <v>562.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2176.81</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12465.71</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12465.72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gesamt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v>3979.91</v>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v>3979.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8616.010000000002</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28685.58</v>
+      </c>
+      <c r="D16" t="n">
+        <v>68930.32999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>80273.82000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22891.88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60610.32999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>34225.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13968.24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>51674.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>369875.79</v>
+      </c>
+      <c r="L16" t="n">
+        <v>365895.87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_Elektrische_Energie_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-09-04 00:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BAGGS_ELE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5838.51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17878.17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42469.29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>51669.61</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12636.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>37018.91</v>
+      </c>
+      <c r="H25" t="n">
+        <v>19957.24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9452.040000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>30147.21</v>
+      </c>
+      <c r="K25" t="n">
+        <v>227067.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>227067.89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Öffentliche und Private Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>993.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2722.22</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7157.45</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7320.85</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2082.14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5514.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3610.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>857.23</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13855.46</v>
+      </c>
+      <c r="K26" t="n">
+        <v>44114.14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>44114.14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Private Haushalte</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2472.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4768.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12020.42</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10612.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4158.92</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9767.49</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5921</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3223.53</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10815.83</v>
+      </c>
+      <c r="K27" t="n">
+        <v>63760.79000000001</v>
+      </c>
+      <c r="L27" t="n">
+        <v>63760.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>191.36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>330.28</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1153.45</v>
+      </c>
+      <c r="E28" t="n">
+        <v>932.64</v>
+      </c>
+      <c r="F28" t="n">
+        <v>258.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>815.96</v>
+      </c>
+      <c r="H28" t="n">
+        <v>261.74</v>
+      </c>
+      <c r="I28" t="n">
+        <v>132.86</v>
+      </c>
+      <c r="J28" t="n">
+        <v>121.03</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4197.67</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4197.68</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Produzierender Bereich</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2128.34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8719.59</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20535.73</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30836.39</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5172.37</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19430.21</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8587.49</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4766.71</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3035.48</v>
+      </c>
+      <c r="K29" t="n">
+        <v>103212.31</v>
+      </c>
+      <c r="L29" t="n">
+        <v>103212.31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Verkehr</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1337.58</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1602.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1967.53</v>
+      </c>
+      <c r="F30" t="n">
+        <v>965.13</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1490.74</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1576.33</v>
+      </c>
+      <c r="I30" t="n">
+        <v>471.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2319.41</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11782.98</v>
+      </c>
+      <c r="L30" t="n">
+        <v>11782.97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gesamt</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v/>
+      </c>
+      <c r="C31" t="n">
+        <v/>
+      </c>
+      <c r="D31" t="n">
+        <v>5244.57</v>
+      </c>
+      <c r="E31" t="n">
+        <v/>
+      </c>
+      <c r="F31" t="n">
+        <v/>
+      </c>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+      <c r="H31" t="n">
+        <v/>
+      </c>
+      <c r="I31" t="n">
+        <v/>
+      </c>
+      <c r="J31" t="n">
+        <v/>
+      </c>
+      <c r="K31" t="n">
+        <v>5244.57</v>
+      </c>
+      <c r="L31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11677.02</v>
+      </c>
+      <c r="C32" t="n">
+        <v>35756.34</v>
+      </c>
+      <c r="D32" t="n">
+        <v>90183.16</v>
+      </c>
+      <c r="E32" t="n">
+        <v>103339.22</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25273.83</v>
+      </c>
+      <c r="G32" t="n">
+        <v>74037.83</v>
+      </c>
+      <c r="H32" t="n">
+        <v>39914.47000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18904.07</v>
+      </c>
+      <c r="J32" t="n">
+        <v>60294.42</v>
+      </c>
+      <c r="K32" t="n">
+        <v>459380.3599999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>454135.79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_Gesamtenergiebilanz_2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-09-04 00:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BAGGS_GES_00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>28078.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>68768.67999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>203128.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>196867.58</v>
+      </c>
+      <c r="F41" t="n">
+        <v>55824.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>159328.12</v>
+      </c>
+      <c r="H41" t="n">
+        <v>69244.61</v>
+      </c>
+      <c r="I41" t="n">
+        <v>34265.94</v>
+      </c>
+      <c r="J41" t="n">
+        <v>120570.92</v>
+      </c>
+      <c r="K41" t="n">
+        <v>936077.4500000001</v>
+      </c>
+      <c r="L41" t="n">
+        <v>936077.46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Öffentliche und Private Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3324.28</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8040.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18363.71</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16458.28</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8812.51</v>
+      </c>
+      <c r="G42" t="n">
+        <v>14002.12</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8544.870000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4984.48</v>
+      </c>
+      <c r="J42" t="n">
+        <v>29461.11</v>
+      </c>
+      <c r="K42" t="n">
+        <v>111992.16</v>
+      </c>
+      <c r="L42" t="n">
+        <v>111992.16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Private Haushalte</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>11292.99</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19735.83</v>
+      </c>
+      <c r="D43" t="n">
+        <v>57947.86</v>
+      </c>
+      <c r="E43" t="n">
+        <v>45089.95</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16042.19</v>
+      </c>
+      <c r="G43" t="n">
+        <v>39453.38</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20107.02</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11386.18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>38884.34</v>
+      </c>
+      <c r="K43" t="n">
+        <v>259939.74</v>
+      </c>
+      <c r="L43" t="n">
+        <v>259939.74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1287.31</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1841.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6563.86</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4686.1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1361.8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3827.41</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1625.43</v>
+      </c>
+      <c r="I44" t="n">
+        <v>699.5700000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>496.12</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22388.8</v>
+      </c>
+      <c r="L44" t="n">
+        <v>22388.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Produzierender Bereich</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2506.72</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17561.99</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43646.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>81396.85000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10827.66</v>
+      </c>
+      <c r="G45" t="n">
+        <v>59723.05</v>
+      </c>
+      <c r="H45" t="n">
+        <v>16066.5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6435.71</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11043.67</v>
+      </c>
+      <c r="K45" t="n">
+        <v>249208.95</v>
+      </c>
+      <c r="L45" t="n">
+        <v>249208.94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Verkehr</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9667.110000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21588.87</v>
+      </c>
+      <c r="D46" t="n">
+        <v>76606.47</v>
+      </c>
+      <c r="E46" t="n">
+        <v>49236.39</v>
+      </c>
+      <c r="F46" t="n">
+        <v>18780.35</v>
+      </c>
+      <c r="G46" t="n">
+        <v>42322.17</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22900.79</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10759.99</v>
+      </c>
+      <c r="J46" t="n">
+        <v>40685.68</v>
+      </c>
+      <c r="K46" t="n">
+        <v>292547.82</v>
+      </c>
+      <c r="L46" t="n">
+        <v>292547.82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gesamt</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v/>
+      </c>
+      <c r="C47" t="n">
+        <v/>
+      </c>
+      <c r="D47" t="n">
+        <v/>
+      </c>
+      <c r="E47" t="n">
+        <v/>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+      <c r="H47" t="n">
+        <v/>
+      </c>
+      <c r="I47" t="n">
+        <v>819.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v/>
+      </c>
+      <c r="K47" t="n">
+        <v>819.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>56156.81</v>
+      </c>
+      <c r="C48" t="n">
+        <v>137537.37</v>
+      </c>
+      <c r="D48" t="n">
+        <v>406257.4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>393735.15</v>
+      </c>
+      <c r="F48" t="n">
+        <v>111649.01</v>
+      </c>
+      <c r="G48" t="n">
+        <v>318656.25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>138489.22</v>
+      </c>
+      <c r="I48" t="n">
+        <v>69351.67</v>
+      </c>
+      <c r="J48" t="n">
+        <v>241141.84</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1872974.72</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1872154.92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_Gesamtenergiebilanz_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-09-04 00:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BAGGS_GES_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>34826.86</v>
+      </c>
+      <c r="C57" t="n">
+        <v>86636.36</v>
+      </c>
+      <c r="D57" t="n">
+        <v>253711.39</v>
+      </c>
+      <c r="E57" t="n">
+        <v>235516.85</v>
+      </c>
+      <c r="F57" t="n">
+        <v>65483.09</v>
+      </c>
+      <c r="G57" t="n">
+        <v>187893.18</v>
+      </c>
+      <c r="H57" t="n">
+        <v>87194.62</v>
+      </c>
+      <c r="I57" t="n">
+        <v>40941.02</v>
+      </c>
+      <c r="J57" t="n">
+        <v>133743.89</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1125947.26</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1125947.27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Öffentliche und Private Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2514.36</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7959.09</v>
+      </c>
+      <c r="D58" t="n">
+        <v>17547.42</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15776.65</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5718.32</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11154.87</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8916.700000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3169</v>
+      </c>
+      <c r="J58" t="n">
+        <v>32570.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>105326.61</v>
+      </c>
+      <c r="L58" t="n">
+        <v>105326.62</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Private Haushalte</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11295.73</v>
+      </c>
+      <c r="C59" t="n">
+        <v>19850.96</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57731.02</v>
+      </c>
+      <c r="E59" t="n">
+        <v>47919.85</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16688.71</v>
+      </c>
+      <c r="G59" t="n">
+        <v>41359.91</v>
+      </c>
+      <c r="H59" t="n">
+        <v>23147.16</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11855.92</v>
+      </c>
+      <c r="J59" t="n">
+        <v>42261.81</v>
+      </c>
+      <c r="K59" t="n">
+        <v>272111.07</v>
+      </c>
+      <c r="L59" t="n">
+        <v>272111.07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1237.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1790.7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6633.09</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4980.19</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1234.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3919.35</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1412.24</v>
+      </c>
+      <c r="I60" t="n">
+        <v>571.92</v>
+      </c>
+      <c r="J60" t="n">
+        <v>623.5700000000001</v>
+      </c>
+      <c r="K60" t="n">
+        <v>22403.46</v>
+      </c>
+      <c r="L60" t="n">
+        <v>22403.45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Produzierender Bereich</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5886.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>27948.25</v>
+      </c>
+      <c r="D61" t="n">
+        <v>61511.47</v>
+      </c>
+      <c r="E61" t="n">
+        <v>97848.85000000001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>17033.34</v>
+      </c>
+      <c r="G61" t="n">
+        <v>72480.67</v>
+      </c>
+      <c r="H61" t="n">
+        <v>22108.45</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10623.55</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8213.059999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>323653.84</v>
+      </c>
+      <c r="L61" t="n">
+        <v>323653.84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Verkehr</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>13893.07</v>
+      </c>
+      <c r="C62" t="n">
+        <v>29087.36</v>
+      </c>
+      <c r="D62" t="n">
+        <v>110288.39</v>
+      </c>
+      <c r="E62" t="n">
+        <v>68991.31</v>
+      </c>
+      <c r="F62" t="n">
+        <v>24807.83</v>
+      </c>
+      <c r="G62" t="n">
+        <v>58978.38</v>
+      </c>
+      <c r="H62" t="n">
+        <v>31610.08</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14720.63</v>
+      </c>
+      <c r="J62" t="n">
+        <v>50075.25</v>
+      </c>
+      <c r="K62" t="n">
+        <v>402452.3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>402452.29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Gesamt</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v/>
+      </c>
+      <c r="C63" t="n">
+        <v/>
+      </c>
+      <c r="D63" t="n">
+        <v/>
+      </c>
+      <c r="E63" t="n">
+        <v/>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+      <c r="H63" t="n">
+        <v/>
+      </c>
+      <c r="I63" t="n">
+        <v>2698.07</v>
+      </c>
+      <c r="J63" t="n">
+        <v/>
+      </c>
+      <c r="K63" t="n">
+        <v>2698.07</v>
+      </c>
+      <c r="L63" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>69653.72</v>
+      </c>
+      <c r="C64" t="n">
+        <v>173272.72</v>
+      </c>
+      <c r="D64" t="n">
+        <v>507422.78</v>
+      </c>
+      <c r="E64" t="n">
+        <v>471033.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>130966.19</v>
+      </c>
+      <c r="G64" t="n">
+        <v>375786.36</v>
+      </c>
+      <c r="H64" t="n">
+        <v>174389.25</v>
+      </c>
+      <c r="I64" t="n">
+        <v>84580.11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>267487.78</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2254592.61</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2251894.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -459,6 +2235,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/tests/unit_tests/results/test_eb.xlsx
+++ b/tests/unit_tests/results/test_eb.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="P418" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -23439,7 +23439,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="P458" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -25545,7 +25545,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="P499" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:30</t>
+          <t>2020-09-05 18:45:30</t>
         </is>
       </c>
     </row>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:29</t>
+          <t>2020-09-05 18:45:29</t>
         </is>
       </c>
     </row>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:29</t>
+          <t>2020-09-05 18:45:29</t>
         </is>
       </c>
     </row>
@@ -28683,7 +28683,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:29</t>
+          <t>2020-09-05 18:45:29</t>
         </is>
       </c>
     </row>
@@ -29202,7 +29202,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:29</t>
+          <t>2020-09-05 18:45:29</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:29</t>
+          <t>2020-09-05 18:45:29</t>
         </is>
       </c>
     </row>
@@ -30240,7 +30240,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:29</t>
+          <t>2020-09-05 18:45:29</t>
         </is>
       </c>
     </row>
@@ -30778,7 +30778,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -31780,7 +31780,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -32281,7 +32281,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -32782,7 +32782,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -33784,7 +33784,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -34285,7 +34285,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -34786,7 +34786,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -35287,7 +35287,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -35788,7 +35788,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -36289,7 +36289,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -36790,7 +36790,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -37291,7 +37291,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -37792,7 +37792,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -38794,7 +38794,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
@@ -39295,7 +39295,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:31</t>
+          <t>2020-09-05 18:45:31</t>
         </is>
       </c>
     </row>
